--- a/inferences/residences-1644.xlsx
+++ b/inferences/residences-1644.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M216"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,35 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>the_line</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>province_id</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>fou</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>fou_wikidata_id</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>fou_id</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -536,16 +541,19 @@
           <t>Q16967</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Tche-kiang, today Zhejiang, 浙江,  @dehergne:396</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -585,28 +593,31 @@
           <t>Q4970</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>101</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hang-tcheou, today Hangzhou, 杭州, </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Hangchou</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Q4970</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -646,32 +657,35 @@
           <t>Q1011103</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>105</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fou-yang, today Fuyang, 富阳, </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Hangchou</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Q4970</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>deh-r1644-hangchou</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -711,32 +725,35 @@
           <t>Q9385136</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>108</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Jen-houo, today Renhe, 仁和县 (), Historical county name, coordinates: 30.448897N, 120.307504E</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Hangchou</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Q4970</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>deh-r1644-hangchou</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -776,28 +793,31 @@
           <t>Q58235</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>111</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>K'iu-tcheou, today Quzhou, 衢州, , in the Chinese translation it is recognized as “遂州”, which is wrong, both phonetically and geographically. In Dehergne(1957), it is noted as "衢州".</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Chüchow</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Q58235</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -837,28 +857,31 @@
           <t>Q42664</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>115</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hou-tcheou, today Huzhou, 湖州, </t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Huchow</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Q42664</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -898,32 +921,35 @@
           <t>Q1191987</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>116</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>"Tehtsing du Huchow, Té-ts'ingTeching# today Deqing, 德清, "</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Huchow</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Q42664</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>deh-r1644-huchow</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -963,28 +989,31 @@
           <t>Q58178</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>120</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">Kia-hing, today Jiaxing, 嘉兴, </t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Kashing</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Q58178</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1024,32 +1053,35 @@
           <t>Q1361347</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>122</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Kia-chan, today Jiashan, 嘉善, Kaosham</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Kashing</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Q58178</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>deh-r1644-kashing</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1089,32 +1121,35 @@
           <t>Q10931032</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>125</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>"T'ang-k'i Tangchi", today Tangqi, 塘栖 , in the Chinese translation it is recognized as “塘拪”</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Kashing</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Q58178</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>deh-r1644-kashing</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1154,32 +1189,35 @@
           <t>Q10270889</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>128</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Tch'ong-té,today Chongde, 崇德县 , Historical county name, located in the present Chongfu 崇福镇Tsungteh (Shihmen)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Kashing</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Q58178</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>deh-r1644-kashing</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1219,32 +1257,35 @@
           <t>Q1204548</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>132</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t xml:space="preserve">T'ong-hiang, today Tongxiang, 桐乡, </t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Kashing</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Q58178</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>deh-r1644-kashing</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1284,28 +1325,31 @@
           <t>Q58210</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>135</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t xml:space="preserve">Kin-hoa,Chinhua,today Jinhua, 金华, </t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Kinhwa</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Q58210</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1345,32 +1389,35 @@
           <t>Q1023793</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>139</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t xml:space="preserve">(qui deviendra em 1656 R des OP)Lan-k'i， today Lanxi, 兰溪, </t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Kinhwa</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Q58210</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>deh-r1644-kinhwa</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1410,32 +1457,35 @@
           <t>Q1023774</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>143</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t xml:space="preserve">Tong-yang, today Dongyang, 东阳, </t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Kinhwa</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Q58210</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>deh-r1644-kinhwa</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1475,28 +1525,31 @@
           <t>Q42780</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>146</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t xml:space="preserve">(v. 1540?)Ning-pouo,today Ningbo, 宁波, </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Ningpo</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Q42780</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1536,32 +1589,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>149</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>(?) Uchim,Ou kin, Dehergne(1957) did not give its Chinese name. In the Chinese translation it is recognized as “五井村”, which cannot be found.bourg de Wuking</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Ningpo</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Q42780</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>deh-r1644-ningpo</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1601,32 +1657,35 @@
           <t>Q1226419</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>152</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t xml:space="preserve">T'ing-hai, today Dinghai, 定海, </t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Ningpo</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Q42780</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>deh-r1644-ningpo</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1666,32 +1725,35 @@
           <t>Q706161</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>155</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t xml:space="preserve">Ts'e-k'i,Tsuchi, today Cixi, 慈溪, </t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Ningpo</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Q42780</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>deh-r1644-ningpo</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1731,28 +1793,31 @@
           <t>Q706161</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>158</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t xml:space="preserve">Chao-hing,Shaohsing, today Shaoxing, 绍兴, </t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Shaoshing</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Q706161</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1792,28 +1857,31 @@
           <t>Q42635</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>162</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t xml:space="preserve">Wen-tcheou, today Wenzhou, 温州, </t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Wenchow</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Q42635</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1853,32 +1921,35 @@
           <t>Q713357</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>163</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t xml:space="preserve">Joei-ngan, today Rui'an, 瑞安, </t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>deh-r1644-chekiang</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Wenchow</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Q42635</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>deh-r1644-wenchow</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1918,16 +1989,19 @@
           <t>Q41705</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>167</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Fou-kien, today Fujian, 福建,  @dehergne:397</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -1967,28 +2041,31 @@
           <t>Q68481</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>168</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t xml:space="preserve">Fuzhou，Fou-tcheou,Fuchou，today Fuzhou, 福州, </t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2028,32 +2105,35 @@
           <t>Q11146687</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>172</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>today Hongtang, 洪塘, , in the Chinese translation it is written as “宏塘”, and in Dehergne(1957) it is "洪堂". But actually this place is written with the characters "洪塘".bourg de Hungtang</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2093,32 +2173,35 @@
           <t>Q1033221</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>175</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>today Machang, 马厂村,  (Changshan district),The Wikidata Q17033140 is that of "马厂街基督教堂" Machang Street Christian Church, but no coordinatesbourg de Machang, Machang</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2158,32 +2241,35 @@
           <t>Q766619</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>178</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>today Changle,长乐, Diongloh (Tch'ang-lo), Tch'ang-lo,Changlo</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2223,32 +2309,35 @@
           <t>Q5639130</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>181</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Haikeu, today Haikou, 海口镇, bourg de Hoihow (Haikeu)</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2288,32 +2377,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>184</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>(?) Dehergne(1957, p30): "A côté de Hai keu on cite, en 1639, une chrétienté " Nien sien ", dont nous ignorons tout."bourg de Niensien</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2353,32 +2445,35 @@
           <t>Q262208</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>187</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t xml:space="preserve">Fou-ts'ing, Fuching, today Fuqing, 福清, </t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2418,32 +2513,35 @@
           <t>Q1168209</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>190</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t xml:space="preserve">Kou-t'ien, today Gutian, 古田, </t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2483,32 +2581,35 @@
           <t>Q204827</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>193</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t xml:space="preserve">Lien-kiang,Lienchiang, today Lianjiang, 连江, </t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Foochow</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Q68481</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>deh-r1644-foochow</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2548,28 +2649,31 @@
           <t>Q68814</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>197</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Zhangzhou, today Zhangzhou, 漳州, Changchow (Lungki)</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Q68814</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2609,32 +2713,35 @@
           <t>Q14420305</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>199</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>today Houban, 后坂 (), (@geonames:1977135), coordinates: 24.50213852506329N, 117.6917197408656EAu-poa,Heupuen</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Q68814</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>deh-r1644-changchow</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2674,28 +2781,31 @@
           <t>Q68695</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>200</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t xml:space="preserve">Quanzhou, Ts'iuen-tcheou, today Quanzhou, 泉州, </t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2735,32 +2845,35 @@
           <t>Q68744</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>205</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Hia-men,Shamen, today Xiamen, 厦门, ,Amoy (Szeming)</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>deh-r1644-chuanchow</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2800,32 +2913,35 @@
           <t>Q4764330</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>209</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Ngan-hai,today Anhai,安海, principaux bourgs</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>deh-r1644-chuanchow</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2865,32 +2981,35 @@
           <t>Q1374978</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>212</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoei-ngan, today Hui'an, 惠安, </t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>deh-r1644-chuanchow</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2930,32 +3049,35 @@
           <t>Q128883</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>215</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Chingchiang ,Tsin-kiang, today Jingjiang, 靖江, . In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".Tsinkiang</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>deh-r1644-chuanchow</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -2995,32 +3117,35 @@
           <t>Q1337868</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>218</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t xml:space="preserve">Yong-tch'oen,Yungchin, today Yongchun, 永春, </t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Chüanchow</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Q68695</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>deh-r1644-chuanchow</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3060,28 +3185,31 @@
           <t>Q241877</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>221</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Fou-ning, today Funing, 福宁,, historical administrative division. The Wikidata code is of its administrative center Xiapu 霞浦Funing (tcheou indép.)</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3121,32 +3249,35 @@
           <t>Q1374581</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" t="n">
+        <v>225</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t xml:space="preserve">Fou-ngan, today Fu'an, 福安, </t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3186,32 +3317,35 @@
           <t>Q28794829</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H44" t="n">
+        <v>229</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Apuy, today Xiapi, 下邳, in the Chinese translation, it is recognized as "霞浦", but actually it is not. In Dehergne(1957), it is noted as "下邳", coordinates: 26.832013826263175N,119.77591087254943E geonames:8579733 (China, FujianNingde Shi, xiapicun), Ningde Shi -&gt; Hiapoey (Apuy)</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3238,7 +3372,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Lokia#"""Lukiahsiang,Lokahoeng, today Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as 闾峡, but in Dehergne(1957), it is noted as 罗家巷. 罗家巷 now is in 罗江. coordinates: 26.971131830911116N, 119.67270683499889E geonames:8579942 Luojiangcun circa @wikidata:Q1152183 """%principaux bourgs</t>
+          <t>Lokia#"""Lukiahsiang,Lokahoeng, today Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as 闾峡, but in Dehergne(1957), it is noted as 罗家巷. 罗家巷 now is in 罗江. """%principaux bourgs</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3248,35 +3382,38 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Q1152183</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>"""Lukiahsiang,Lokahoeng, today Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as 闾峡, but in Dehergne(1957), it is noted as 罗家巷. 罗家巷 now is in 罗江. coordinates: 26.971131830911116N, 119.67270683499889E geonames:8579942 Luojiangcun circa  """principaux bourgs</t>
-        </is>
+          <t>No wikidata</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>232</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>"""Lukiahsiang,Lokahoeng, today Luojiaxiang, 罗家巷, in the Chinese translation, it is recognized as 闾峡, but in Dehergne(1957), it is noted as 罗家巷. 罗家巷 now is in 罗江. """principaux bourgs</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3316,32 +3453,35 @@
           <t>Q14471971</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>236</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>today Muyang, 穆阳, principaux bourgs, Mou-yang</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3381,32 +3521,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>240</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>(?) 藤头？顶头？ in the Chinese translation it is recognized as “丁岛”, which is wrong, in Dehergne(1957, p.35), says "identification de la localité n'est pas facile." And several possible Chinese names were given, not sure which is the right one.</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3446,32 +3589,35 @@
           <t>Q68919</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" t="n">
+        <v>244</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>today Ningde, 宁德, Ning-té,Ningte</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3511,32 +3657,35 @@
           <t>Q1149660</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>248</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheou-ning, today Shouning, 寿宁, </t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Funing</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Q241877</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>deh-r1644-funing</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3576,28 +3725,31 @@
           <t>Q68579</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>252</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Hing-hoa,Hsinghua, today Xinghua, 兴化, wikidata:Q17498990, 兴化县，the wikidata code of it does not contain coordinate information, which can be substituted by ，the present-day Putian 莆田</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Hinghwa</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Q68579</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3637,32 +3789,35 @@
           <t>Q17031936</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>255</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t xml:space="preserve">P'ou-t'ien, today Putian, 莆田, </t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Hinghwa</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Q68579</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>deh-r1644-hinghwa</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3702,32 +3857,35 @@
           <t>Q1337926</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>258</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t xml:space="preserve">Sien-yeou, today Xianyou, 仙游, </t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Hinghwa</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Q68579</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>deh-r1644-hinghwa</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3767,28 +3925,31 @@
           <t>Q639862</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>261</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t xml:space="preserve">Kienning (Kienow), Kien-yang, today Jianyang, 建阳, </t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Kienning</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Q639862</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3828,32 +3989,35 @@
           <t>Q639862</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" t="n">
+        <v>265</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t xml:space="preserve">Kien-yang, today Jianyang, 建阳, </t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Kienning</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Q639862</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>deh-r1644-kienning</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3893,32 +4057,35 @@
           <t>Q94945</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>268</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Tch'ong-ngan, today Chong'an, 崇安, , Today the city's name changed to be Wuyishan 武夷山市, and the wikidata code is that of Wuyishan</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Kienning</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Q639862</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>deh-r1644-kienning</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -3958,28 +4125,31 @@
           <t>Q1025451</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>271</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t xml:space="preserve">Chao-ou, today Shaowu, 邵武, </t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Shaowu</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Q1025451</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4019,32 +4189,35 @@
           <t>Q781559</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>275</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t xml:space="preserve">Kien-ning,Chienning, today Jianning Xian, 建宁县, </t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Shaowu</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Q1025451</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>deh-r1644-shaowu</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4084,32 +4257,35 @@
           <t>Q1375194</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>279</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t xml:space="preserve">T'ai-ning, today Taining, 泰宁, </t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Shaowu</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Q1025451</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>deh-r1644-shaowu</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4149,28 +4325,31 @@
           <t>Q7808213</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>282</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t xml:space="preserve">T'ing-tcheou, today Tingzhou, 汀州, </t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Tingchow</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Q7808213</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4210,32 +4389,35 @@
           <t>Q1198091</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>285</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t xml:space="preserve">Ning-hoa, today Ninghua, 宁化, </t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Tingchow</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>Q7808213</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>deh-r1644-tingchow2</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4275,32 +4457,35 @@
           <t>Q1198324</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>288</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsing-lowou,Chingliu, today Qingliu, 清流, </t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Tingchow</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>Q7808213</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>deh-r1644-tingchow2</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4340,28 +4525,31 @@
           <t>Q1337959</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>291</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t xml:space="preserve">Yen-p'ing, today Yanping, 延平, </t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Yenping</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Q1337959</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4401,32 +4589,35 @@
           <t>Q1198385</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>295</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>today Shaxian, 沙县 Cha</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Yenping</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>Q1337959</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>deh-r1644-yenping</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4466,28 +4657,31 @@
           <t>Q22502</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>299</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>today Taiwan, 台湾, Formose (Taiwan), Formosa</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4527,32 +4721,35 @@
           <t>Q249996</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>300</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t xml:space="preserve">Ki-long, Jilong, today Keelung, 基隆, </t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>deh-r1644-taiwan</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4592,28 +4789,31 @@
           <t>Q570509</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>303</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>deh-r1644-taiwan</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4654,33 +4854,36 @@
           <t>Q7420445</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>307</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>"""hoje：大包里 in the Chinese translation it is recognized as 塔巴里,in Dehergne(1957) it is noted as 大包里, which cannot be found in the map. Dehergne(1957) puts it as "Peninsule de Masu, à 1 lieue nord-ouest de San Salvador (社寮)"
                 today's Santissima Trinidad ， with Masu coordinates:25.201218764354735N, 121.68618375811317E"""</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>deh-r1644-taiwan</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4720,32 +4923,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>310</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>today Jinbaoli, 金包里, in the Chinese translation it is recognized as “噶玛兰”, but in Dehergne(1957) it is noted as "金包里". It is an area in the Northern Taiwan, coordinates: 25.22189808588497N, 121.6382892794898EQuimauri</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>deh-r1644-taiwan</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4785,32 +4991,35 @@
           <t>Q31106</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>313</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>today Cape Santiago, 三貂角, Kakinauan, Samitiao</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>deh-r1644-fukien</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Taiwan</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>Q22502</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>deh-r1644-taiwan</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4850,16 +5059,19 @@
           <t>Q43684</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>317</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t xml:space="preserve">today Henan, 河南, </t>
         </is>
       </c>
-      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4899,28 +5111,31 @@
           <t>Q208471</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>318</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaifeng (Pienleang) «chrétiens de la Croix» (D'Elu II 319 sq) v. 1550., chrétienté v. 1623, K'ai-fong, today Kaifeng, 开封, </t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>deh-r1644-honan</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Kaifeng</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Q208471</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -4960,32 +5175,35 @@
           <t>Q10911308</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>322</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t xml:space="preserve">Yuen-ou, today Yuanwu, 原武, </t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>deh-r1644-honan</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Kaifeng</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>Q208471</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>deh-r1644-kaifeng</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5025,28 +5243,31 @@
           <t>Q404817</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>325</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t xml:space="preserve">Koei-té,Kueite, today Guide, 归德, </t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>deh-r1644-honan</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Kweiteh</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>Q404817</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5073,29 +5294,32 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hukwang#Huguang?, Hou-Quang, today Huguang,湖广, wikidata:Q2235155 for coordinates we use Wuchang District @wikidata:Q1014420, where the head quarters of vice-roy of Huguang (wikidata:Q11563236) was located.</t>
+          <t>Hukwang#"""Huguang?, Hou-Quang, today Huguang,湖广, @wikidata:Q2235155, for coordinates we use Wuchang District wikidata:Q1014420 (coordinates:30°33'23"N, 114°18'38"E), where the head quarters of vice-roy of Huguang (wikidata:Q11563236) were located."""</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Q1014420</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Huguang?, Hou-Quang, today Huguang,湖广, wikidata:Q2235155 for coordinates we use Wuchang District , where the head quarters of vice-roy of Huguang (wikidata:Q11563236) was located.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>Q2235155</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>328</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Huguang?, Hou-Quang, today Huguang,湖广, , for coordinates we use Wuchang District wikidata:Q1014420 (coordinates:30°33'23"N, 114°18'38"E), where the head quarters of vice-roy of Huguang (wikidata:Q11563236) were located.</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5127,36 +5351,39 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>Q2235155</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>Q1014420</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>332</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">do Hupei?, Ou-tch'ang, today Wuchang, 武昌, </t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>deh-r1644-hukwang</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Wuchang</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>Q1014420</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">do Hupei?, Ou-tch'ang, today Wuchang, 武昌, </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>deh-r1644-hukwang</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Wuchang</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Q1014420</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5188,40 +5415,43 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>Q2235155</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Q1356703</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>335</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T'ong-chan, today Tongshan, 通山, </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>deh-r1644-hukwang</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Wuchang</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>Q1014420</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Q1356703</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">T'ong-chan, today Tongshan, 通山, </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>deh-r1644-hukwang</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Wuchang</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Q1014420</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>deh-r1644-wuchang</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5253,7 +5483,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5261,28 +5491,31 @@
           <t>Q557934</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>339</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t xml:space="preserve">do Hupei?, Ngan-lou, today Anlu, 安陆, </t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Anlu</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Q557934</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5314,7 +5547,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5322,32 +5555,35 @@
           <t>Q71323</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>340</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t xml:space="preserve">Kingmen, King-men,Chingmen, today Jingmen, 荆门, </t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>Anlu</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Q557934</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>deh-r1644-anlu</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5379,7 +5615,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5387,28 +5623,31 @@
           <t>Q927929</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>344</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t xml:space="preserve">do Hupei?, Hoang-tcheou, today Huangzhou, 黄州, </t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Hwangchow</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Q927929</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5440,7 +5679,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5448,32 +5687,35 @@
           <t>Q71323</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>345</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t xml:space="preserve">Kichow (Kichun), King-men,Chingmen, today Jingmen, 荆门, </t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Hwangchow</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>Q927929</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>deh-r1644-hwangchow</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5505,7 +5747,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5513,28 +5755,31 @@
           <t>Q14135188</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>349</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t xml:space="preserve">do Hupei?, K'i-tcheou,Chichou, today Qizhou, 蕲州, </t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Kingchow</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>Q14135188</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5566,7 +5811,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5574,32 +5819,35 @@
           <t>Q1198857</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" t="n">
+        <v>351</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t xml:space="preserve">Kong-ngan, today Gong'an, 公安, </t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>Kingchow</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>Q14135188</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>deh-r1644-kingchow</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5631,7 +5879,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5639,32 +5887,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="H83" t="n">
+        <v>352</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>(?) in the Chinese translation it is recognized as “孟家集”, but 孟家集 is in Shandong province, not in Hubei. Dehergne(1957) said "Meng-kia-k´i à la frontière du Hunan, ancienne chrétienté des Ming"au bourg de Meng kia k´i</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Kingchow</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>Q14135188</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>deh-r1644-kingchow</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5696,7 +5947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Q1014420</t>
+          <t>Q2235155</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5704,32 +5955,35 @@
           <t>Q1359319</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H84" t="n">
+        <v>355</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t xml:space="preserve">Che-cheou, today Shishou, 石首, </t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>deh-r1644-hukwang</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Kingchow</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>Q14135188</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>deh-r1644-kingchow</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5769,16 +6023,19 @@
           <t>Q45761</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H85" t="n">
+        <v>358</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t xml:space="preserve">Hou-nan, today Hunan, 湖南, </t>
         </is>
       </c>
-      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5818,28 +6075,31 @@
           <t>Q266014</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H86" t="n">
+        <v>362</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t xml:space="preserve">do Hunan?, Yong-tcheou, today Yongzhou, 永州, </t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>deh-r1644-hunan</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Yungchow</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>Q266014</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5879,32 +6139,35 @@
           <t>Q1199641</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H87" t="n">
+        <v>364</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t xml:space="preserve">K'i-yang,Chiyang, today Qiyang, 祁阳, </t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>deh-r1644-hunan</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Yungchow</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>Q266014</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>deh-r1644-yungchow</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -5944,32 +6207,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H88" t="n">
+        <v>365</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>"""Dehergne (1957) "Dés 1587, à Pascivi=Paishui (Pé-choei) 白水 du Kiyang (K'i-yang) 祁陽 hien au nord-est de Yungchow,..." coordinates:26.4269N, 111.9940E"""</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>deh-r1644-hunan</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Yungchow</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>Q266014</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>deh-r1644-yungchow</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6009,16 +6275,19 @@
           <t>Q11133842</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H89" t="n">
+        <v>369</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>"""Jiangnan?today Jiangnan, 江南,  (no coordinates), former province of China, corresponding to modern-day Jiangsu and Anhui provinces, coordinates:32°3'39"N, 118°46'44"E (Nankjing)"""KIANGNAN ou NANKING</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6058,16 +6327,19 @@
           <t>Q40956</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H90" t="n">
+        <v>373</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t xml:space="preserve">Anhui, Ngon-hoei, today Anhui, 安徽, </t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6107,28 +6379,31 @@
           <t>Q114045</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H91" t="n">
+        <v>376</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t xml:space="preserve">Chuchow, today Chuzhou, 滁州, </t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>deh-r1644-anhwei</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Chuchow</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>Q114045</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6168,28 +6443,31 @@
           <t>Q4358404</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H92" t="n">
+        <v>380</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoei-tcheou, today Huizhou, 徽州, </t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>deh-r1644-anhwei</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Hweichow</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>Q4358404</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6229,32 +6507,35 @@
           <t>Q1357710</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H93" t="n">
+        <v>382</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>Ou-yuen, today Wuyuan Xian, 婺源县, , Wuyuan historically was in Anhui province, but now it is in the present-day Jiangxi province</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>deh-r1644-anhwei</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Hweichow</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>Q4358404</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>deh-r1644-hweichow</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6294,32 +6575,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H94" t="n">
+        <v>383</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>(?) In Dehergne(1957, p51): "Chrétienté au Wuyüan (Ou-yuen) hien, à la frontière du Kiangsi, et se nomme Tungmen, à l'ouest du Wuyüan, route de Kingtehchen." in the Chinese translation it is recogniazed as “东门村”, but it seems that there is no 东门村 in this area.Wuyuän hien le bourg de Tungmen</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>deh-r1644-anhwei</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Hweichow</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>Q4358404</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>deh-r1644-hweichow</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6359,16 +6643,19 @@
           <t>Q16963</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="H95" t="n">
+        <v>386</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiangju, today Jiangsu, 江苏, </t>
         </is>
       </c>
-      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6408,28 +6695,31 @@
           <t>Q16666</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="H96" t="n">
+        <v>389</v>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t xml:space="preserve">Nanjing, Nan-king,Nanching, today Nanjing, 南京, </t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Nanking</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Q16666</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6469,32 +6759,35 @@
           <t>Q8044278</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H97" t="n">
+        <v>393</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t xml:space="preserve">Hiao-ling-wei,Hsiaolingwei, today Xiaolingwei, 孝陵卫, </t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Nanking</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>Q16666</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>deh-r1644-nanking</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6534,32 +6827,35 @@
           <t>Q13721719</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H98" t="n">
+        <v>396</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>today Gaowang, 高旺,  (no coord.), in the Chinese translation, it is written as “高望”, which should be “高旺”, coordinates: 32°3'53"N, 118°38'24"E (江浦街道 Q11134699)</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Nanking</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>Q16666</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>deh-r1644-nanking</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6599,32 +6895,35 @@
           <t>Q31853195</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="H99" t="n">
+        <v>399</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t xml:space="preserve">today Longtan, 龙潭, </t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Nanking</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>Q16666</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>deh-r1644-nanking</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6664,28 +6963,31 @@
           <t>Q57970</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H100" t="n">
+        <v>402</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>today Changzhou, 常州, Changchow (Wutsin)</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Q57970</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6725,32 +7027,35 @@
           <t>Q1015788</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H101" t="n">
+        <v>405</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t xml:space="preserve">I-hing,Ihsing, today Yixing, 宜兴, </t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>Q57970</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>deh-r1644-changchow-fou</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6790,32 +7095,35 @@
           <t>Q428587</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H102" t="n">
+        <v>408</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>Chingchiang, today Jingjiang, 靖江, , In the original book (Dehergne, 1973), it is written as "Tsinkiang" (without g), which is wrongly spelled, because from both phonetic and geographical points of view, it should be Tsingkiang 靖江. In Dehergne(1973), it is written as Tsingjiang. And in the Chinese translation, it is also recognized as "靖江".</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>Q57970</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>deh-r1644-changchow-fou</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6855,32 +7163,35 @@
           <t>Q42651</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H103" t="n">
+        <v>411</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t xml:space="preserve">Ou-si,Wuhsi, today Wuxi, 无锡, </t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>Q57970</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>deh-r1644-changchow-fou</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6920,32 +7231,35 @@
           <t>Q1197421</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="H104" t="n">
+        <v>414</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Changchow</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>Q57970</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>deh-r1644-changchow-fou</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -6985,28 +7299,31 @@
           <t>Q57958</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H105" t="n">
+        <v>417</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t xml:space="preserve">Tchen-kiang,Chenchiang, today Zhenjiang, 镇江, </t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>Chinkiang</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>Q57958</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7046,32 +7363,35 @@
           <t>Q925293</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H106" t="n">
+        <v>420</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t xml:space="preserve">Tan-yang, today Danyang, 丹阳, </t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Chinkiang</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>Q57958</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>deh-r1644-chinkiang</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7111,28 +7431,31 @@
           <t>Q57818</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="H107" t="n">
+        <v>423</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoai-ngan, today Huai'an, 淮安, </t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>Hwaian</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>Q57818</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7172,28 +7495,31 @@
           <t>Q42622</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H108" t="n">
+        <v>426</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>Sou-tcheou, Suchou, today Suzhou, 苏州, Soochow (Wuhsien)</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>Soochow</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>Q42622</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7233,32 +7559,35 @@
           <t>Q113497198</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H109" t="n">
+        <v>429</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>today Wuxian, 吴县,  (no coord.), former city in Jiangsu, coordinates: 31°15'52"N, 120°37'41"E (Q943850 Wuzhong District)</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>Soochow</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>Q42622</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>deh-r1644-soochow</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7298,32 +7627,35 @@
           <t>Q662101</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="n">
+        <v>433</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t xml:space="preserve">Kia-ting,Chiating, today Jiading, 嘉定, </t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>Soochow</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>Q42622</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>deh-r1644-soochow</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7363,32 +7695,35 @@
           <t>Q788812</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="H111" t="n">
+        <v>437</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>Tch'ong-ming,Chungming, today Chongming, 崇明, Tsungming (île)</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>Soochow</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>Q42622</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>deh-r1644-soochow</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7428,28 +7763,31 @@
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="n">
+        <v>440</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t xml:space="preserve">Song-kiang,Sungching, today Songjiang, 松江, </t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7489,32 +7827,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="n">
+        <v>444</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>(?) today Gaojia, 高家, in the Chinese translation it is recognized as “高家岗”, which actually is not in that area. It should be “高家”. Dehergne(1957, p60) said "'Cao kia' près de Cié pao (=Tsipao) est citée dans l'annuelle de 1643 (JS 122 185). Il y a un 高家 plus près de Sungkiang, à l'est."</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7554,32 +7895,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H114" t="n">
+        <v>446</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>Ma kia pim, today Majiabang, 马家浜, in the Chinese translation it is recognized as “穆喀榜”, which is wrong. Dehergne(1957, p60) said it is "马家滨" at "sud de Sung-kiang". In the present day it might be "马家浜" to the south Songjiang, coordinates: 30.845691234919308N, 121.3179093082612E</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7619,32 +7963,35 @@
           <t>Q11055382</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H115" t="n">
+        <v>447</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t xml:space="preserve">Tch'oan-cha, today Chuansha, 川沙, </t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7684,32 +8031,35 @@
           <t>Q662694</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="H116" t="n">
+        <v>450</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>Fong-hien,Fenghsien, today Fengxian, 奉贤, Fenghsien (Vongtsié)</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7749,32 +8099,35 @@
           <t>Q662241</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H117" t="n">
+        <v>454</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t xml:space="preserve">Kin-chan,Chinshan, today Jinshan, 金山, </t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7814,32 +8167,35 @@
           <t>Q11094342</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="H118" t="n">
+        <v>455</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>Tchou-king,Chuching, today Zhujing, 朱泾, , in the Chinese traslation it is written as “诸泾”, which should be “朱泾”</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7879,32 +8235,35 @@
           <t>Q8686</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="H119" t="n">
+        <v>458</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t xml:space="preserve">Chang-hai, today Shanghai, 上海, </t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -7944,32 +8303,35 @@
           <t>Q46536920</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="H120" t="n">
+        <v>463</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t xml:space="preserve">Ts'ing-p'ou,Chingpu, today Qingpu, 青浦, </t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8009,32 +8371,35 @@
           <t>Q1875153</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H121" t="n">
+        <v>464</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t xml:space="preserve">Tsi-pao,Chipao, today Qibao, 七宝, </t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>Sungkiang</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>Q11104671</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>deh-r1644-sungkiang</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8074,28 +8439,31 @@
           <t>Q57906</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="H122" t="n">
+        <v>467</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t xml:space="preserve">Yang-tcheou, today Yangzhou, 扬州, </t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>Yangchow</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>Q57906</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8135,32 +8503,35 @@
           <t>Q1253949</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H123" t="n">
+        <v>470</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t xml:space="preserve">Kao-yeou, today Gaoyou, 高邮, </t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>Yangchow</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>Q57906</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="M123" t="inlineStr">
         <is>
           <t>deh-r1644-yangchow</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8200,32 +8571,35 @@
           <t>Q661828</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H124" t="n">
+        <v>474</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t xml:space="preserve">Pao-chan, today Baoshan, 宝山, </t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>Yangchow</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>Q57906</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>deh-r1644-yangchow</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8265,32 +8639,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="H125" t="n">
+        <v>475</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>today Fushan, 福山村, coordinates: 31.800210981845982N, 120.7617947082488E</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsu</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>Yangchow</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>Q57906</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>deh-r1644-yangchow</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8330,16 +8707,19 @@
           <t>Q57052</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="H126" t="n">
+        <v>479</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t xml:space="preserve">Jiangxi, Kiang-si, today Jiangxi, 江西, </t>
         </is>
       </c>
-      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8379,28 +8759,31 @@
           <t>Q171943</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H127" t="n">
+        <v>480</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t xml:space="preserve">Nan-tch'ang, today Nanchang, 南昌, </t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsi</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>Nanchang</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="L127" t="inlineStr">
         <is>
           <t>Q171943</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8440,28 +8823,31 @@
           <t>Q11065388</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="H128" t="n">
+        <v>484</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t xml:space="preserve">Kien-tch'ang,Chienchang, today Jianchang, 建昌, </t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsi</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>Kienchang</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="L128" t="inlineStr">
         <is>
           <t>Q11065388</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8501,28 +8887,31 @@
           <t>Q28794376</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="H129" t="n">
+        <v>488</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t xml:space="preserve">Nan-ngan, today Nan'an, 南安, </t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsi</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>Nanan</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="L129" t="inlineStr">
         <is>
           <t>Q28794376</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8562,32 +8951,35 @@
           <t>Q521512</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="H130" t="n">
+        <v>491</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t xml:space="preserve">Nan-tch'eng, today Nancheng, 南城, </t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsi</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>Nanan</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="L130" t="inlineStr">
         <is>
           <t>Q28794376</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>deh-r1644-nanan</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8627,32 +9019,35 @@
           <t>Q1356725</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H131" t="n">
+        <v>494</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t xml:space="preserve">Nan-fong, today Nanfeng, 南丰, </t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>deh-r1644-kiangsi</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>Nanan</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="L131" t="inlineStr">
         <is>
           <t>Q28794376</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>deh-r1644-nanan</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8692,16 +9087,19 @@
           <t>Q15176</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="H132" t="n">
+        <v>498</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t xml:space="preserve">Guangxi, Koang-si, today Guangxi, 广西, </t>
         </is>
       </c>
-      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8741,28 +9139,31 @@
           <t>Q189633</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="H133" t="n">
+        <v>499</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t xml:space="preserve">Koei-lin, today Guilin, 桂林, </t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>deh-r1644-kwangsi</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>Kweilin</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="L133" t="inlineStr">
         <is>
           <t>Q189633</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8802,28 +9203,31 @@
           <t>Q571652</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="H134" t="n">
+        <v>502</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t xml:space="preserve">Ou-tcheou, today Wuzhou, 梧州, </t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>deh-r1644-kwangsi</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>Wuchow</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="L134" t="inlineStr">
         <is>
           <t>Q571652</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8863,16 +9267,19 @@
           <t>Q15175</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="H135" t="n">
+        <v>506</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t xml:space="preserve">Guangdong, today Guangdong, 广东, </t>
         </is>
       </c>
-      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8912,28 +9319,31 @@
           <t>Q14773</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="H136" t="n">
+        <v>507</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t xml:space="preserve">Macau, today Macao, 澳门, </t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>Macau</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="L136" t="inlineStr">
         <is>
           <t>Q14773</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -8973,32 +9383,35 @@
           <t>Q3319473</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H137" t="n">
+        <v>514</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>Tsingchow,Ts'ing-tcheou, today Ilha Verde, 青州, Ilha Verde (Tsingchow)</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>Macau</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="L137" t="inlineStr">
         <is>
           <t>Q14773</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>deh-r1644-macau</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9038,32 +9451,35 @@
           <t>Q14342082</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="H138" t="n">
+        <v>517</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>Lapa,Wantchai, today Wanzai, 湾仔, Lappa (Wantchai)</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>Macau</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="L138" t="inlineStr">
         <is>
           <t>Q14773</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>deh-r1644-macau</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9103,28 +9519,31 @@
           <t>Q16572</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="H139" t="n">
+        <v>520</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t xml:space="preserve">Koang-tcheou, today Guangzhou, 广州, </t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>Cantão</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="L139" t="inlineStr">
         <is>
           <t>Q16572</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9164,32 +9583,35 @@
           <t>Q59218</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="H140" t="n">
+        <v>527</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t xml:space="preserve">Tong-koan,Tungkuan, today Dongguan, 东莞, </t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>Cantão</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="L140" t="inlineStr">
         <is>
           <t>Q16572</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>deh-r1644-cantao</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9229,32 +9651,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H141" t="n">
+        <v>528</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>today Guanyao, 官窑, In the Chinses translation it is recognized as “高要村”，which is wrong. in Dehergne(1957), it is noted as "官窑", coordinates: 23.314954073028765N, 113.22132587290358E</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>Cantão</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="L141" t="inlineStr">
         <is>
           <t>Q16572</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>deh-r1644-cantao</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9294,32 +9719,35 @@
           <t>Q6482357</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="H142" t="n">
+        <v>531</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampacau,Lampacão, today 浪白滘, 浪白澳, </t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>Cantão</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="L142" t="inlineStr">
         <is>
           <t>Q16572</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>deh-r1644-cantao</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9359,28 +9787,31 @@
           <t>Q1081204</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="H143" t="n">
+        <v>534</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>K'iong-tcheou,Chiungchou, today Qiongzhou, 琼州, Kiungchow (île de Hainan)</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>Kiungchow</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>Q1081204</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9420,32 +9851,35 @@
           <t>Q1022249</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="H144" t="n">
+        <v>540</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t xml:space="preserve">Ting-ngan, today Ding'an, 定安, </t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>Kiungchow</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>Q1081204</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>deh-r1644-kiungchow</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9485,32 +9919,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="H145" t="n">
+        <v>543</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>today Xiangou, 仙沟, In the Chinese translation it is recognized as "板桥", but in Dehergne (1957), it is noted as "仙沟". coordinates: 19.678430033709233N, 110.3760945797476E</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>Kiungchow</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="L145" t="inlineStr">
         <is>
           <t>Q1081204</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>deh-r1644-kiungchow</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9550,32 +9987,35 @@
           <t>Q11181853</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="H146" t="n">
+        <v>546</v>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>Lummo, today Longmen, 龙门, , in the Chinese translation it is written as “龙末”, but but in Dehergne (1957), it is noted as "龙门"</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="J146" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>Kiungchow</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="L146" t="inlineStr">
         <is>
           <t>Q1081204</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>deh-r1644-kiungchow</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9615,28 +10055,31 @@
           <t>Q1209167</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="H147" t="n">
+        <v>549</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t xml:space="preserve">Lei-tcheou, today Leizhou, 雷州, </t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>Luichow</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="L147" t="inlineStr">
         <is>
           <t>Q1209167</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9676,28 +10119,31 @@
           <t>Q934465</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="H148" t="n">
+        <v>552</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>Nan-hiong, today Nanxiong, 南雄, Namyung (alors fou)</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>Namyung</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="L148" t="inlineStr">
         <is>
           <t>Q934465</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9724,7 +10170,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Schiuchow#Chao-tcheou, today Shaozhou, 韶州, @wikidata:Q1346617, historical administrative division. The Wikidata code is of its administrative center Qujiang 曲江, which is in the present-day City of Shaoguan 韶关.%Shiuchow (Chao-tcheou)</t>
+          <t>Schiuchow#"""Chao-tcheou, today Shaozhou, 韶州, @wikidata:Q11643048, historical administrative division. The administrative center was Qujiang 曲江, wikidata:Q1346617, coordinates:24°40'58"N, 113°36'1"E, which is in the present-day City of Shaoguan 韶关."""%Shiuchow (Chao-tcheou)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9734,31 +10180,34 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Chao-tcheou, today Shaozhou, 韶州, , historical administrative division. The Wikidata code is of its administrative center Qujiang 曲江, which is in the present-day City of Shaoguan 韶关.Shiuchow (Chao-tcheou)</t>
-        </is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>558</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
+          <t>Chao-tcheou, today Shaozhou, 韶州, , historical administrative division. The administrative center was Qujiang 曲江, wikidata:Q1346617, coordinates:24°40'58"N, 113°36'1"E, which is in the present-day City of Shaoguan 韶关.Shiuchow (Chao-tcheou)</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9798,32 +10247,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="H150" t="n">
+        <v>560</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>Machia, today Majia, 马家, Dehergne(1957) said Makia"马家" is "à 15 kilomètres au sud de la ville" (de Shiuchow), which should be to the south of Shiuchow, but I only found one "马家" in that area, but it is to the west of the city (coordinates: 24.75569541392557, 113.15960996554436), which might not be the right place.</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L150" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9863,32 +10315,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="H151" t="n">
+        <v>561</v>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>Cinçun, today Jingcun, 靖村, coordinates:24.840448198893206N, 113.54394322209676E. In the original book (Dehergne, 1973), it is written as "Tsintsun" (without g), which is wrongly spelled. In Dehergne(1973), it is written as Tsingtsun, with the Chinese name 靖村 noted. It is "à une heure et demie de marche au nord-ouest de Siuchow." In the Chinese traslation, it is recognized as "青村", which is wrong.</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L151" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9928,32 +10383,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="H152" t="n">
+        <v>565</v>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>Vançun, today Huangcun, 黄村, coordinates: 24.900778941203768N, 113.60398607001083E Dehergne(1957): "à une heure de chemin au nord de Shiuchow".</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="J152" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L152" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -9993,32 +10451,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="H153" t="n">
+        <v>567</v>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>(?) Hwanghsiaping, today Vankaxen, 黄下坪？, In the Chinese translation, it is recognized as "黄下坪". Dehergne(1957):"Hwanghsiaping (" Vankaxen ") à 15 li à l'ouest de Shiuchow." But it cannot be found in the map.</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L153" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10058,32 +10519,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="H154" t="n">
+        <v>569</v>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>Mochi, today Madigang, 麻地岗, In the Chinese translation, it is recognized as “末岗”, but in Dehergne(1957), it is noted as “麻地岗”., coordinates: 24.68899887552694N, 113.57599418283718E</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L154" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10123,32 +10587,35 @@
           <t>No wikidata</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="H155" t="n">
+        <v>571</v>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>(?) In the Chinese translation, it is recognized as “英洋”, which is wrong. In Dehergne(1957), it is noted as "杨姓村". But it cannot be found in the map.</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>Schiuchow</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Q1346617</t>
-        </is>
-      </c>
       <c r="L155" t="inlineStr">
         <is>
+          <t>Q11643048</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
           <t>deh-r1644-shiuchow</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10188,28 +10655,31 @@
           <t>Q59164</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="H156" t="n">
+        <v>572</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>Tchao-k'ing, Chaoching, today Zhaoqing, 肇庆, Shiuhing (Tchao-k'ing, actuel Hoyiu)</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>deh-r1644-kwangtung</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>Shiuhing</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="L156" t="inlineStr">
         <is>
           <t>Q59164</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10249,16 +10719,19 @@
           <t>Q47097</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="H157" t="n">
+        <v>577</v>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t xml:space="preserve">Koei-Tcheou, today Guizhou, 贵州, </t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10298,12 +10771,15 @@
           <t>Q956</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>579</v>
+      </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10343,28 +10819,31 @@
           <t>Q956</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H159" t="n">
+        <v>580</v>
+      </c>
+      <c r="I159" t="inlineStr">
         <is>
           <t>today 北京, Peking (Shuntien) (1598), 1601</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>Pequim,</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="L159" t="inlineStr">
         <is>
           <t>Q956</t>
         </is>
       </c>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10404,32 +10883,35 @@
           <t>Q4578286</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="H160" t="n">
+        <v>584</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>Chala (cimetière et chapelle)</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>Pequim,</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="L160" t="inlineStr">
         <is>
           <t>Q956</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr">
+      <c r="M160" t="inlineStr">
         <is>
           <t>deh-r1644-pequim</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10469,32 +10951,35 @@
           <t>Q1156678</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="H161" t="n">
+        <v>587</v>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t xml:space="preserve">Ta-tch'eng,today Dacheng, 大城县. </t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>Pequim,</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="L161" t="inlineStr">
         <is>
           <t>Q956</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>deh-r1644-pequim</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10534,32 +11019,35 @@
           <t>Q11736</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="H162" t="n">
+        <v>590</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>T'ien-tsin,Tienchin, today Tianjin, 天津, Tientsin</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>Pequim,</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="L162" t="inlineStr">
         <is>
           <t>Q956</t>
         </is>
       </c>
-      <c r="L162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>deh-r1644-pequim</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10599,32 +11087,35 @@
           <t>Q393836</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="H163" t="n">
+        <v>593</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>T'ong-tcheou, today Tongzhou, 通州, ?</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>Pequim,</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="L163" t="inlineStr">
         <is>
           <t>Q956</t>
         </is>
       </c>
-      <c r="L163" t="inlineStr">
+      <c r="M163" t="inlineStr">
         <is>
           <t>deh-r1644-pequim</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10664,28 +11155,31 @@
           <t>Q197678</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="H164" t="n">
+        <v>601</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t xml:space="preserve">Tcheng-ting, today Zhengding, 正定, </t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>Chengting</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="L164" t="inlineStr">
         <is>
           <t>Q197678</t>
         </is>
       </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10725,32 +11219,35 @@
           <t>Q645183</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H165" t="n">
+        <v>604</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t xml:space="preserve">Ting tcheou, today Dingzhou, 定州, </t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>Chengting</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="L165" t="inlineStr">
         <is>
           <t>Q197678</t>
         </is>
       </c>
-      <c r="L165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>deh-r1644-chengting</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10790,28 +11287,31 @@
           <t>Q1601618</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H166" t="n">
+        <v>607</v>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t xml:space="preserve">Ho-kien, today Hejian, 河间, </t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>Hokien</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>Q1601618</t>
         </is>
       </c>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10851,32 +11351,35 @@
           <t>Q1197955</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H167" t="n">
+        <v>610</v>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t xml:space="preserve">Ning-tsin,Ningchin, today Ningjin, 宁津, </t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>Hokien</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>Q1601618</t>
         </is>
       </c>
-      <c r="L167" t="inlineStr">
+      <c r="M167" t="inlineStr">
         <is>
           <t>deh-r1644-hokien</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1644</v>
       </c>
     </row>
@@ -10916,3016 +11419,35 @@
           <t>Q474923</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="H168" t="n">
+        <v>613</v>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t xml:space="preserve">Ou-k'iao,Wuchiao,today Wuqiao, 吴桥, </t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>deh-r1644-pequim-provincia</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>Hokien</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>Q1601618</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>deh-r1644-hokien</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>deh-r1644-paoting</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Paoting%Paoting (Tsingyüan), today Baoding, 保定, @wikidata:Q58584</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Q956</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Q58584</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paoting (Tsingyüan), today Baoding, 保定, </t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>deh-r1644-pequim-provincia</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Q58584</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>deh-r1644-kaoyang</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Kaoyang</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Kaoyang#Kao-yang, today Gaoyang, 高阳, @wikidata:Q1196631</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Q956</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Q1196631</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kao-yang, today Gaoyang, 高阳, </t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>deh-r1644-pequim-provincia</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Q58584</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>deh-r1644-paoting</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Pequim</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>deh-r1644-shulu</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Shulu</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Shulu#Chou-lou, today Shulu, 束鹿, @wikidata:Q1015480, Now the city name is Xinji 辛集. Wikidata code is that of Xinji</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Q956</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Q1015480</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Chou-lou, today Shulu, 束鹿, , Now the city name is Xinji 辛集. Wikidata code is that of Xinji</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>deh-r1644-pequim-provincia</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Paoting</t>
-        </is>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Q58584</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>deh-r1644-paoting</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Shansi#Chan-si, today Shanxi, 山西, @wikidata:Q46913</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chan-si, today Shanxi, 山西, </t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>deh-r1644-taiyuan</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Taiyuan#T'ai-yuen, today Taiyuan, 太原, @wikidata:Q72778</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Q72778</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">T'ai-yuen, today Taiyuan, 太原, </t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>Q72778</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingting</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Pingting</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Pingting#P'ing-ting, today Pingding, 平定州, @wikidata:Q1196978, Now it is Pingding County 平定县%Pingting tcheou</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Q1196978</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>P'ing-ting, today Pingding, 平定州, , Now it is Pingding County 平定县Pingting tcheou</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Taiyuan</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>Q72778</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>deh-r1644-taiyuan</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Pingyang#P'ing-yang, today Pingyang Fu, 平阳府, wikidata:Q15905472, historical administrative division. Now it is in Linfen 临汾 @wikidata:Q73156%Pingyang (Linfen)</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>P'ing-yang, today Pingyang Fu, 平阳府, wikidata:Q15905472, historical administrative division. Now it is in Linfen 临汾 Pingyang (Linfen)</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>deh-r1644-kiangchow</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Kiangchow</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Kiangchow#Chiangchou, today Jiangzhou, 绛州, @wikidata:Q1197219, historical administrative division. Now it is Xinjiang 新绛. Wikidata code is that of 新绛</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>Q1197219</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Chiangchou, today Jiangzhou, 绛州, , historical administrative division. Now it is Xinjiang 新绛. Wikidata code is that of 新绛</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>deh-r1644-kianghsien</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Kianghsien</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Kianghsien#Kiang hien, today Jiangxian, 绛县, @wikidata:Q1197307%Kianghsien (au Sud de Kiangchow)</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>Q1197307</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Kiang hien, today Jiangxian, 绛县, Kianghsien (au Sud de Kiangchow)</t>
-        </is>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>deh-r1644-kuwo</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Kuwo</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Kuwo#K'iu-wo,Chüwu, Quwo, 曲沃, @wikidata:Q1332080</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Q1332080</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">K'iu-wo,Chüwu, Quwo, 曲沃, </t>
-        </is>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>deh-r1644-puchow</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Puchow</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Puchow#P'ou-tcheou, today Puzhou, 蒲州, today Q14105968, @wikidata:Q14105968%pas encore fou</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>Q14105968</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>P'ou-tcheou, today Puzhou, 蒲州, today Q14105968, pas encore fou</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>deh-r1644-siahsien</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Siahsien</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Siahsien#"""Hia hien, today Xiaxian, 夏县, @wikidata:Q612136, Dehergne(1957) noted it as “夏县”. In the Chinese translation, it is recognized as "隰县",which is wrong."""</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>Q612136</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Hia hien, today Xiaxian, 夏县, , Dehergne(1957) noted it as “夏县”. In the Chinese translation, it is recognized as "隰县",which is wrong.</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>deh-r1644-taiping</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Taiping</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Taiping#"""today Taiping, 太平, @wikidata:Q18111423 (no coord.), historical administrative division. Now its administrative center is Fencheng 汾城, wikidata:Q11137504 (coordinates: 35°49'10"N, 111°16'20"E)"""%Taiping (Fencheng)</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Q18111423</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>today Taiping, 太平,  (no coord.), historical administrative division. Now its administrative center is Fencheng 汾城, wikidata:Q11137504 (coordinates: 35°49'10"N, 111°16'20"E)Taiping (Fencheng)</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Pingyang</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>Q73156</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>deh-r1644-pingyang</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsechow</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Tsechow#today Fencheng, 汾城, @wikidata:Q197104</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t xml:space="preserve">today Fencheng, 汾城, </t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsishan</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Tsishan</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Tsishan#today Zezhou, 泽州, @wikidata:Q197104</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t xml:space="preserve">today Zezhou, 泽州, </t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsechow</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Shansi</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>deh-r1644-yungtsi</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Yungtsi</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Yungtsi#Tsi-chan,Chishan, today Jishan, 稷山, @wikidata:Q473451</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Q46913</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Q473451</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsi-chan,Chishan, today Jishan, 稷山, </t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>deh-r1644-shansi</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Tsechow</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Q197104</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsechow</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Shangtung#Chan-tong, Shandong, 山东, @wikidata:Q43407</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chan-tong, Shandong, 山东, </t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Tsinan#Tsi-nan, today Jinan, 济南, @wikidata:Q170247</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsi-nan, today Jinan, 济南, </t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>deh-r1644-taian</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Taian</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Taian#T'ai-ngan, today Tai'an, 泰安, @wikidata:Q217681%Taian tcheou</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>Q217681</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>T'ai-ngan, today Tai'an, 泰安, Taian tcheou</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>deh-r1644-kwanchang</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Kwanchang</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Kwanchang#"""(?) In Dehergne(1957), there is no "Kwanchang". In the Chinese translation, it is recognized as “官昌”，but cannot be found in the map."""</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>(?) In Dehergne(1957), there is no "Kwanchang". In the Chinese translation, it is recognized as “官昌”，but cannot be found in the map.</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>deh-r1644-manchwang</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Manchwang</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Manchwang#Muon choam, today Manzhuang, 满庄, @wikidata:Q14782428</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>Q14782428</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muon choam, today Manzhuang, 满庄, </t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsiho</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Tsiho</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>Tsiho#today Qihe, 齐河, @wikidata:Q1198234</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>Q1198234</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">today Qihe, 齐河, </t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>deh-r1644-wuting</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Wuting</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Wuting#"""Ou-ting, today Wuding, 武定, @wikidata:Q17008118 (no coord.) located in today's Huimin County (coordinates: 37°28'44"N, 117°29'52"E)"""%[Wuting, alors tcheou, Hweimin]</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>Q17008118</t>
-        </is>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>"""Ou-ting, today Wuding, 武定,  (no coord.) located in today's Huimin County (coordinates: 37°28'44"N, 117°29'52"E)"""[Wuting, alors tcheou, Hweimin]</t>
-        </is>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>deh-r1644-pinchow</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Pinchow</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Pinchow#@wikidata:Q373687</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>Q373687</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>deh-r1644-yucheng</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Yucheng</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Yucheng#Pin-tcheou, today Binzhou, 滨州, @wikidata:Q373687</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>Q373687</t>
-        </is>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pin-tcheou, today Binzhou, 滨州, </t>
-        </is>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>Tsinan</t>
-        </is>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>Q170247</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsinan</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>deh-r1644-tengchow</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Tengchow</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Tengchow#Teng-tcheou, today Dengzhou, 登州, @wikidata:Q10428329%Tengchow (Penglai)</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>Q10428329</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Teng-tcheou, today Dengzhou, 登州, Tengchow (Penglai)</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>Tengchow</t>
-        </is>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>Q10428329</t>
-        </is>
-      </c>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>deh-r1644-tsingchow-yitu</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Tsingchow</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Tsingchow#Ts'ing-tcheou, Chingchou, today Qingzhou, 青州, @wikidata:Q1360781%Tsingchow (Yitu)</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Q1360781</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Ts'ing-tcheou, Chingchou, today Qingzhou, 青州, Tsingchow (Yitu)</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Tsingchow</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>Q1360781</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>deh-r1644-tungchang</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Tungchang#Tong-tch'ang, today Dungchang, 东昌, @wikidata:Q10870440</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>Q10870440</t>
-        </is>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tong-tch'ang, today Dungchang, 东昌, </t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>Q10870440</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>deh-r1644-peichingtien</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Peichingtien</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Peichingtien#(?) Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>(?) Dehergne(1957)did not give the Chinese name of Peichingtien.In the Chinese translation, it is recognized as “北辛店村”，but the pronunciation dose not match. In addition, the “北辛店村”of Shandong is far from Dongchang.</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>Q10870440</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>deh-r1644-tungchang</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Shangtung</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>deh-r1644-lintsing</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Lintsing</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Lintsing#Lin-ts'ing,Linching, today Linqing, 临清, @wikidata:Q1207099%Lintsing tcheou</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Q43407</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>Q1207099</t>
-        </is>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Lin-ts'ing,Linching, today Linqing, 临清, Lintsing tcheou</t>
-        </is>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangtung</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Tungchang</t>
-        </is>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>Q10870440</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>deh-r1644-tungchang</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Shensi#Chen-si @wikidata:Q47974, today Shaanxi @dehergne:399</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Chen-si , today Shaanxi @dehergne:399</t>
-        </is>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Sian#Hsian, today Xi'an, 西安, @wikidata:Q5826%Sun (Changan)</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Hsian, today Xi'an, 西安, Sun (Changan)</t>
-        </is>
-      </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>deh-r1644-chowchih</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Chowchih</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Chowchih#today Zhouzhi, 周至, @wikidata:Q198072, In the Chinese translation, it is written as “盩厔”. Before 1964, 周至was written as “盩厔”.</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>Q198072</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>today Zhouzhi, 周至, , In the Chinese translation, it is written as “盩厔”. Before 1964, 周至was written as “盩厔”.</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>deh-r1644-kaoling</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Kaoling</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Kaoling#Kao-ling, today Gaoling, 高陵, @wikidata:Q280060</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Q280060</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kao-ling, today Gaoling, 高陵, </t>
-        </is>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>deh-r1644-kiao-tou</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Kiao-tou</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Kiao-tou#"""Kiao-tou (ou Tungyüanfang) Kiao-tou and Tungyüanfang are the same place. The Chinese translation recognized it as “贾都”, which might be wrong, as “贾都” cannot be found. Tungyüanfang in the Chinese reanslation it is recognized as “东院房”, but in Dehergne(1957), it is noted as "通远坊". And there is a "通远天主堂"(Tongyuan Catholic Church) there, coordinates: 34.55258137628194N,109.04672038131238E"""</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Kiao-tou (ou Tungyüanfang) Kiao-tou and Tungyüanfang are the same place. The Chinese translation recognized it as “贾都”, which might be wrong, as “贾都” cannot be found. Tungyüanfang in the Chinese reanslation it is recognized as “东院房”, but in Dehergne(1957), it is noted as "通远坊". And there is a "通远天主堂"(Tongyuan Catholic Church) there, coordinates: 34.55258137628194N,109.04672038131238E</t>
-        </is>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>deh-r1644-hwachow</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Hwachow</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Hwachow#How-tcheou, today Huazhou, 华州, @wikidata:Q727188</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Q727188</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">How-tcheou, today Huazhou, 华州, </t>
-        </is>
-      </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>deh-r1644-sanyuan</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Sanyuan</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Sanyuan#Sanyuan, 三原, @wikidata:Q1201362</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Q1201362</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sanyuan, 三原, </t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>deh-r1644-shangchow</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Shangchow</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Shangchow#Changtcheou, today Shangzhou, 商州, @wikidata:Q1339355</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Q1339355</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Changtcheou, today Shangzhou, 商州, </t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Sian</t>
-        </is>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>Q5826</t>
-        </is>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>deh-r1644-sian</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>deh-r1644-hanchung</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Hanchung#How-tcheou, today Huazhou, 华州, @wikidata:Q515573%Hanchung (Nancheng)</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Q515573</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>How-tcheou, today Huazhou, 华州, Hanchung (Nancheng)</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>Q515573</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>deh-r1644-chenku</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Chengku</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Chengku#Tch'eng-kou, today Chenggu, 城固, @wikidata:Q1069968</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Q1069968</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tch'eng-kou, today Chenggu, 城固, </t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>Q515573</t>
-        </is>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>deh-r1644-hanchung</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>deh-r1644-siao-tchai-tse</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Siao tchai tse</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Siao tchai tse#"""(?) In Dehergne(1957), it is noted as "小塞子", and in the Chinese translation, it is recognized as "小寨子村"。 But both places are not “ près de Cheng” as said in Dehergne(1957)."""</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>No wikidata</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>(?) In Dehergne(1957), it is noted as "小塞子", and in the Chinese translation, it is recognized as "小寨子村"。 But both places are not “ près de Cheng” as said in Dehergne(1957).</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>Q515573</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>deh-r1644-hanchung</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Shensi</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>deh-r1644-yanghsien</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Yanghsien</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Yanghsien#Yang Hien, today Yangxian, 洋县, @wikidata:Q1201504</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Q47974</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Q1201504</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yang Hien, today Yangxian, 洋县, </t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>deh-r1644-shensi</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Hanchung</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>Q515573</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>deh-r1644-hanchung</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>deh-r1644-szechwan</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Szechwan#Se-tch'oan, today Sichuan, 四川, @wikidata:Q19770</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se-tch'oan, today Sichuan, 四川, </t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>deh-r1644-chengtu</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Chengtu#Tch'eng-tou, today Chengdu, 成都, today @wikidata:Q30002%Chengtu (Hwayang)</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Q30002</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Tch'eng-tou, today Chengdu, 成都, today Chengtu (Hwayang)</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>deh-r1644-szechwan</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>Q30002</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>deh-r1644-mienchow</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>tcheou-hien</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Mienchow</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Mienchow#"""Mien tcheou, today Mianzhou, 绵州, today @wikidata:Q10475921 (no coord.) Mienchow is an historical administrative division, now it is located in the city of Mianyang (Q426130, coordinates: 31°28'1"N, 104°44'18"E)"""</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Q10475921</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Mien tcheou, today Mianzhou, 绵州, today  (no coord.) Mienchow is an historical administrative division, now it is located in the city of Mianyang (Q426130, coordinates: 31°28'1"N, 104°44'18"E)</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>deh-r1644-szechwan</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Chengtu</t>
-        </is>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>Q30002</t>
-        </is>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>deh-r1644-chengtu</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>deh-r1644-chungking</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Chungking</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Chungking#Tch'ong-K'ing,Chungching, today Chongqing, 重庆, @wikidata:Q11725%Chungking (Pahsien)</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Q11725</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Tch'ong-K'ing,Chungching, today Chongqing, 重庆, Chungking (Pahsien)</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>deh-r1644-szechwan</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Chungking</t>
-        </is>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>Q11725</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Szechwan</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>deh-r1644-paoning</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>fou</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Paoning</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Paoning#"""Pao-ning, today Baoning, 保宁, @wikidata:Q10887586 (no coord.), 保宁府 historical administrative division of China, where 阆中 was in (same as Langzhong: Q1200170 coordinates: 31°35'0"N, 105°58'19"E""")%Paoning (Langchung)</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Q19770</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Q10887586</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>"""Pao-ning, today Baoning, 保宁,  (no coord.), 保宁府 historical administrative division of China, where 阆中 was in (same as Langzhong: Q1200170 coordinates: 31°35'0"N, 105°58'19"E""")Paoning (Langchung)</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>deh-r1644-szechwan</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Paoning</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>Q10887586</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>deh-r1644-yunnan</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>province</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Yunnan</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Yunnan#today Yunnan, 云南, @wikidata:Q43194</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Q43194</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Q43194</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">today Yunnan, 云南, </t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="N168" t="n">
         <v>1644</v>
       </c>
     </row>
